--- a/tests/output/03-formats.xlsx
+++ b/tests/output/03-formats.xlsx
@@ -7,13 +7,14 @@
     <sheet sheetId="1" name="NumberFormat" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="DateFormat" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="CurrencyFormat" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="StringFormat" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>元値</t>
   </si>
@@ -28,6 +29,18 @@
   </si>
   <si>
     <t>通貨形式</t>
+  </si>
+  <si>
+    <t>文字列書式</t>
+  </si>
+  <si>
+    <t>01234</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -66,11 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,4 +503,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/tests/output/03-formats.xlsx
+++ b/tests/output/03-formats.xlsx
@@ -426,6 +426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -461,6 +464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -482,6 +488,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="10.4" customWidth="1"/>
+    <col min="2" max="2" width="11.6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -509,6 +519,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
